--- a/6.xlsx
+++ b/6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carrickbartle/Library/CloudStorage/Dropbox/1337/AdventOfCode2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{881D88E3-AC1B-F24A-82BC-826514845CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E0F137-550B-CC46-861F-6CC8D202724D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="28320" windowHeight="16080" xr2:uid="{CE93528C-3170-8044-85BF-3BD606331FB4}"/>
+    <workbookView xWindow="3600" yWindow="500" windowWidth="27160" windowHeight="16080" xr2:uid="{CE93528C-3170-8044-85BF-3BD606331FB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,13 +34,151 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Time:      7  15   30</t>
+  </si>
+  <si>
+    <t>Distance:  9  40  200</t>
+  </si>
+  <si>
+    <t>game 1</t>
+  </si>
+  <si>
+    <t>game 2</t>
+  </si>
+  <si>
+    <t>game 3</t>
+  </si>
+  <si>
+    <t>game 4</t>
+  </si>
+  <si>
+    <r>
+      <t>Distance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>644</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1023</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1240</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1023</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="18"/>
       <color theme="1"/>
       <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="Menlo"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -64,8 +202,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,12 +520,407 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5929DA58-BA29-3241-9BA9-23BEF83F1CFF}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="10.69921875" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>62</v>
+      </c>
+      <c r="E6">
+        <v>73</v>
+      </c>
+      <c r="F6">
+        <v>75</v>
+      </c>
+      <c r="G6">
+        <v>65</v>
+      </c>
+      <c r="I6" s="1">
+        <v>71530</v>
+      </c>
+      <c r="J6">
+        <v>62737565</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <v>200</v>
+      </c>
+      <c r="D7">
+        <v>644</v>
+      </c>
+      <c r="E7">
+        <v>1023</v>
+      </c>
+      <c r="F7">
+        <v>1240</v>
+      </c>
+      <c r="G7">
+        <v>1023</v>
+      </c>
+      <c r="I7" s="1">
+        <v>940200</v>
+      </c>
+      <c r="J7">
+        <v>644102312401023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>A6^2</f>
+        <v>49</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ref="B8:C8" si="0">B6^2</f>
+        <v>225</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:G8" si="1">D6^2</f>
+        <v>3844</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>5329</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>5625</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>4225</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8:J8" si="2">I6^2</f>
+        <v>5116540900</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>3936002062129225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>SUM(A8-4*A7)</f>
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ref="B9:C9" si="3">SUM(B8-4*B7)</f>
+        <v>65</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9" si="4">SUM(D8-4*D7)</f>
+        <v>1268</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9" si="5">SUM(E8-4*E7)</f>
+        <v>1237</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9" si="6">SUM(F8-4*F7)</f>
+        <v>665</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ref="G9:J9" si="7">SUM(G8-4*G7)</f>
+        <v>133</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="7"/>
+        <v>5112780100</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="7"/>
+        <v>1359592812525133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>SQRT(A9)</f>
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ref="B10:C10" si="8">SQRT(B9)</f>
+        <v>8.0622577482985491</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10" si="9">SQRT(D9)</f>
+        <v>35.608987629529715</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ref="E10" si="10">SQRT(E9)</f>
+        <v>35.171010790137949</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10" si="11">SQRT(F9)</f>
+        <v>25.787593916455254</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ref="G10:J10" si="12">SQRT(G9)</f>
+        <v>11.532562594670797</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="12"/>
+        <v>71503.706896915493</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="12"/>
+        <v>36872656.705547176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>SUM((-A6+A10)/-2)</f>
+        <v>1.6972243622680054</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ref="B11:C11" si="13">SUM((-B6+B10)/-2)</f>
+        <v>3.4688711258507254</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11" si="14">SUM((-D6+D10)/-2)</f>
+        <v>13.195506185235143</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ref="E11" si="15">SUM((-E6+E10)/-2)</f>
+        <v>18.914494604931026</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ref="F11" si="16">SUM((-F6+F10)/-2)</f>
+        <v>24.606203041772375</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ref="G11:J11" si="17">SUM((-G6+G10)/-2)</f>
+        <v>26.733718702664603</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="17"/>
+        <v>13.146551542253292</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="17"/>
+        <v>12932454.147226412</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>SUM((-A6-A10)/-2)</f>
+        <v>5.3027756377319948</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ref="B12:C12" si="18">SUM((-B6-B10)/-2)</f>
+        <v>11.531128874149275</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="18"/>
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12:G12" si="19">SUM((-D6-D10)/-2)</f>
+        <v>48.804493814764854</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="19"/>
+        <v>54.085505395068978</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="19"/>
+        <v>50.393796958227625</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="19"/>
+        <v>38.266281297335397</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ref="I12:J12" si="20">SUM((-I6-I10)/-2)</f>
+        <v>71516.853448457754</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="20"/>
+        <v>49805110.852773592</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>SUM(FLOOR(A12,1)-FLOOR(A11,1))</f>
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ref="B13:C13" si="21">SUM(FLOOR(B12,1)-FLOOR(B11,1))</f>
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13" si="22">SUM(FLOOR(D12,1)-FLOOR(D11,1))</f>
+        <v>35</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13" si="23">SUM(FLOOR(E12,1)-FLOOR(E11,1))</f>
+        <v>36</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13" si="24">SUM(FLOOR(F12,1)-FLOOR(F11,1))</f>
+        <v>26</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ref="G13:J13" si="25">SUM(FLOOR(G12,1)-FLOOR(G11,1))</f>
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <f>SUM(G13*F13*E13*D13)</f>
+        <v>393120</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="25"/>
+        <v>71503</v>
+      </c>
+      <c r="J13">
+        <f>SUM(FLOOR(J12,1)-FLOOR(J11,1))</f>
+        <v>36872656</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <f>SUM(31+SQRT(317))</f>
+        <v>48.804493814764854</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <f>SUM(48-14)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <f>SUM(1/2*(73+SQRT(1237)))</f>
+        <v>54.085505395068978</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>((-7+SQRT(13))/-2)</f>
+        <v>1.6972243622680054</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <f>SUM(54-18)</f>
+        <v>36</v>
+      </c>
+      <c r="E20">
+        <f>SUM(C18*C20*C22*C25)</f>
+        <v>381888</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f>((-7-SQRT(13))/-2)</f>
+        <v>5.3027756377319948</v>
+      </c>
+      <c r="C21">
+        <f>SUM(1/2*(75+SQRT(665)))</f>
+        <v>50.393796958227625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <f>SUM(50-24)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <f>SUM(1/2*(65-SQRT(133)))</f>
+        <v>26.733718702664603</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <f>SUM(1/2*(65+SQRT(133)))</f>
+        <v>38.266281297335397</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <f>SUM(38-26)</f>
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>